--- a/upload/sinComsionP.xlsx
+++ b/upload/sinComsionP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C073BCE-8E9C-4F34-85D3-8393363FDD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5F6839-FD49-4BBD-A837-C8178EF1F63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="241">
   <si>
     <t>id</t>
   </si>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1228,10 +1228,10 @@
         <v>65</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1263,10 +1263,10 @@
         <v>65</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1298,10 +1298,10 @@
         <v>65</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1333,10 +1333,10 @@
         <v>1600000</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1368,10 +1368,10 @@
         <v>85</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1403,10 +1403,10 @@
         <v>85</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -1438,10 +1438,10 @@
         <v>85</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1473,10 +1473,10 @@
         <v>85</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1508,10 +1508,10 @@
         <v>85</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1543,10 +1543,10 @@
         <v>95</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1578,10 +1578,10 @@
         <v>75</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1613,10 +1613,10 @@
         <v>75</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1648,10 +1648,10 @@
         <v>65</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1683,10 +1683,10 @@
         <v>75</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1718,10 +1718,10 @@
         <v>1400000</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1753,10 +1753,10 @@
         <v>85</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1788,10 +1788,10 @@
         <v>150</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1823,10 +1823,10 @@
         <v>65</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1858,10 +1858,10 @@
         <v>45</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1893,10 +1893,10 @@
         <v>65</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1919,10 +1919,10 @@
         <v>1800</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1945,10 +1945,10 @@
         <v>1800</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1980,10 +1980,10 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -2015,10 +2015,10 @@
         <v>85</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -2050,10 +2050,10 @@
         <v>95</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -2085,10 +2085,10 @@
         <v>95</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -2111,10 +2111,10 @@
         <v>550</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -2146,10 +2146,10 @@
         <v>110</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -2181,10 +2181,10 @@
         <v>75</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -2207,10 +2207,10 @@
         <v>900</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -2233,10 +2233,10 @@
         <v>900</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -2268,10 +2268,10 @@
         <v>85</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -2303,10 +2303,10 @@
         <v>400</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -2338,10 +2338,10 @@
         <v>75</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -2373,10 +2373,10 @@
         <v>95</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -2408,10 +2408,10 @@
         <v>85</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2443,10 +2443,10 @@
         <v>220</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2478,10 +2478,10 @@
         <v>180</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -2513,10 +2513,10 @@
         <v>45</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -2548,10 +2548,10 @@
         <v>400</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -2583,10 +2583,10 @@
         <v>85</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -2618,10 +2618,10 @@
         <v>220</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -2653,10 +2653,10 @@
         <v>270</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -2688,10 +2688,10 @@
         <v>450</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -2723,10 +2723,10 @@
         <v>150</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -2758,10 +2758,10 @@
         <v>220</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2793,10 +2793,10 @@
         <v>450</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -2828,10 +2828,10 @@
         <v>85</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -2863,10 +2863,10 @@
         <v>1700</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -2898,10 +2898,10 @@
         <v>400</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -2933,10 +2933,10 @@
         <v>65</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -2968,10 +2968,10 @@
         <v>95</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -2994,10 +2994,10 @@
         <v>550</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -3020,10 +3020,10 @@
         <v>550</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -3055,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -3090,10 +3090,10 @@
         <v>95</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -3125,10 +3125,10 @@
         <v>1200</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -3160,10 +3160,10 @@
         <v>95</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -3195,10 +3195,10 @@
         <v>220</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -3230,10 +3230,10 @@
         <v>65</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -3265,10 +3265,10 @@
         <v>2200</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -3300,10 +3300,10 @@
         <v>400</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -3335,10 +3335,10 @@
         <v>220</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -3370,10 +3370,10 @@
         <v>300</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -3405,10 +3405,10 @@
         <v>150</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -3440,10 +3440,10 @@
         <v>220</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
